--- a/criba de eratóstenes/Libro1.xlsx
+++ b/criba de eratóstenes/Libro1.xlsx
@@ -5,22 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonioquihuis/Documents/GitHub/Procesos-paralelos-y-distribuidos/criba de eratóstenes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonioquihuis/Documents/GitHub/Procesos-paralelos-y-distribuidos/criba de eratóstenes/Recursos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D44998D-FE54-D846-AF26-D4DE2B06D3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07FE608-1E90-E94D-9E1A-D1CF589ABE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14700" xr2:uid="{3DF23470-73AA-8347-AA65-759303B4D065}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Secuencial" sheetId="1" r:id="rId1"/>
     <sheet name="Paralelo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,12 +27,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>n enteros</t>
   </si>
@@ -53,18 +53,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue Light"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +110,1075 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo  y SpeedUp para n =</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 5,000,000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Paralelo!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Paralelo!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Paralelo!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.103385776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5658324000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2156797999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8079954000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3828385000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9593707000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8172153999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6308286999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1284879999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1684518000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2035078000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6375380000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7184725999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5429534000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0491613000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9086734000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30BD-B147-9A31-95F5AC04DC73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="507668544"/>
+        <c:axId val="507670192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="507668544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507670192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="507670192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507668544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>250613</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B608EB-9FAB-1143-B165-444F79A78929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,14 +1477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C8190E-45C1-364C-A1F0-50D814502157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -429,21 +1503,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CF43D-1461-114A-A4D2-670A80908D5B}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -454,18 +1532,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5000000</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>0.103385776</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5000000</v>
       </c>
@@ -473,17 +1552,23 @@
         <f>B2+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>6.5658324000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5000000</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B17" si="0">B3+1</f>
+        <f t="shared" ref="B3:B17" si="0">B3+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>5.2156797999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5000000</v>
       </c>
@@ -491,8 +1576,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>4.8079954000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5000000</v>
       </c>
@@ -500,8 +1588,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>6.3828385000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5000000</v>
       </c>
@@ -509,8 +1600,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>5.9593707000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5000000</v>
       </c>
@@ -518,8 +1612,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>5.8172153999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5000000</v>
       </c>
@@ -527,8 +1624,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>6.6308286999999994E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5000000</v>
       </c>
@@ -536,8 +1636,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>7.1284879999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5000000</v>
       </c>
@@ -545,8 +1648,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>7.1684518000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5000000</v>
       </c>
@@ -554,8 +1660,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>7.2035078000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5000000</v>
       </c>
@@ -563,8 +1672,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>7.6375380000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5000000</v>
       </c>
@@ -572,8 +1684,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>7.7184725999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5000000</v>
       </c>
@@ -581,8 +1696,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>7.5429534000000006E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5000000</v>
       </c>
@@ -590,8 +1708,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>8.0491613000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5000000</v>
       </c>
@@ -599,8 +1720,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="C17">
+        <v>7.9086734000000006E-2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>